--- a/data/outputs/business_outcome_income.xlsx
+++ b/data/outputs/business_outcome_income.xlsx
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>425680.3523496157</v>
+        <v>425994.6896640848</v>
       </c>
       <c r="E2" t="n">
-        <v>34054428.18796926</v>
+        <v>34079575.17312679</v>
       </c>
       <c r="F2" t="n">
-        <v>21794834.04030032</v>
+        <v>21810928.11080115</v>
       </c>
       <c r="G2" t="n">
-        <v>54793574.95444253</v>
+        <v>54825516.55976771</v>
       </c>
       <c r="H2" t="n">
-        <v>35067547.42656134</v>
+        <v>35089182.58763067</v>
       </c>
     </row>
     <row r="3">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>182043.7171359801</v>
+        <v>182275.1206115206</v>
       </c>
       <c r="E3" t="n">
-        <v>14563497.37087841</v>
+        <v>14582009.64892165</v>
       </c>
       <c r="F3" t="n">
-        <v>9320638.317362182</v>
+        <v>9332486.175309855</v>
       </c>
       <c r="G3" t="n">
-        <v>13443928.51049213</v>
+        <v>13466485.91077914</v>
       </c>
       <c r="H3" t="n">
-        <v>8605206.50901778</v>
+        <v>8617967.702512695</v>
       </c>
     </row>
     <row r="4">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1305118.543181891</v>
+        <v>1305110.533317586</v>
       </c>
       <c r="E4" t="n">
-        <v>84832705.30682293</v>
+        <v>84832184.66564308</v>
       </c>
       <c r="F4" t="n">
-        <v>54292931.39636667</v>
+        <v>54292598.18601158</v>
       </c>
       <c r="G4" t="n">
-        <v>171087989.8257141</v>
+        <v>171034735.3912697</v>
       </c>
       <c r="H4" t="n">
-        <v>109499445.7729607</v>
+        <v>109459620.4293459</v>
       </c>
     </row>
     <row r="5">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>173364.5577619721</v>
+        <v>173081.3339464156</v>
       </c>
       <c r="E5" t="n">
-        <v>8668227.888098605</v>
+        <v>8654066.69732078</v>
       </c>
       <c r="F5" t="n">
-        <v>6327806.358311982</v>
+        <v>6317468.689044169</v>
       </c>
       <c r="G5" t="n">
-        <v>42058241.71305443</v>
+        <v>41977415.92202418</v>
       </c>
       <c r="H5" t="n">
-        <v>30702863.17964526</v>
+        <v>30644050.17521288</v>
       </c>
     </row>
     <row r="6">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>136798.2309235868</v>
+        <v>136518.1774144977</v>
       </c>
       <c r="E6" t="n">
-        <v>8207893.855415207</v>
+        <v>8191090.644869862</v>
       </c>
       <c r="F6" t="n">
-        <v>5991762.514453101</v>
+        <v>5979496.170754999</v>
       </c>
       <c r="G6" t="n">
-        <v>25542965.67805212</v>
+        <v>25519342.90409206</v>
       </c>
       <c r="H6" t="n">
-        <v>18646966.85719411</v>
+        <v>18629270.48998236</v>
       </c>
     </row>
     <row r="7">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2124416.688973072</v>
+        <v>2124368.397579251</v>
       </c>
       <c r="E7" t="n">
-        <v>121091751.2714651</v>
+        <v>121088998.6620173</v>
       </c>
       <c r="F7" t="n">
-        <v>88396978.42816952</v>
+        <v>88394969.02327263</v>
       </c>
       <c r="G7" t="n">
-        <v>341011366.9139575</v>
+        <v>341449732.542913</v>
       </c>
       <c r="H7" t="n">
-        <v>248939147.6138646</v>
+        <v>249252144.0879735</v>
       </c>
     </row>
     <row r="8">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>810724.0041025039</v>
+        <v>810489.9293295477</v>
       </c>
       <c r="E8" t="n">
-        <v>40536200.2051252</v>
+        <v>40524496.46647739</v>
       </c>
       <c r="F8" t="n">
-        <v>42563010.21538145</v>
+        <v>42550721.28980125</v>
       </c>
       <c r="G8" t="n">
-        <v>81907446.13447596</v>
+        <v>82013475.94885693</v>
       </c>
       <c r="H8" t="n">
-        <v>86001602.35519361</v>
+        <v>86114554.99126445</v>
       </c>
     </row>
     <row r="9">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>314616.7555670574</v>
+        <v>314606.7831060606</v>
       </c>
       <c r="E9" t="n">
-        <v>11640819.95598112</v>
+        <v>11640450.97492424</v>
       </c>
       <c r="F9" t="n">
-        <v>12222860.95378018</v>
+        <v>12222473.52367045</v>
       </c>
       <c r="G9" t="n">
-        <v>16951550.78995305</v>
+        <v>16913260.65978182</v>
       </c>
       <c r="H9" t="n">
-        <v>17801016.02998411</v>
+        <v>17759552.90633712</v>
       </c>
     </row>
     <row r="10">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4081982.479991935</v>
+        <v>4080136.873291438</v>
       </c>
       <c r="E10" t="n">
-        <v>163279299.1996774</v>
+        <v>163205474.9316575</v>
       </c>
       <c r="F10" t="n">
-        <v>171443264.1596613</v>
+        <v>171365748.6782404</v>
       </c>
       <c r="G10" t="n">
-        <v>233693496.9795383</v>
+        <v>233506233.258469</v>
       </c>
       <c r="H10" t="n">
-        <v>245408786.6971151</v>
+        <v>245216226.0848154</v>
       </c>
     </row>
     <row r="11">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29473.17350883361</v>
+        <v>29485.28647699561</v>
       </c>
       <c r="E11" t="n">
-        <v>1473658.67544168</v>
+        <v>1474264.32384978</v>
       </c>
       <c r="F11" t="n">
-        <v>1547341.609213765</v>
+        <v>1547977.54004227</v>
       </c>
       <c r="G11" t="n">
-        <v>3356404.999185971</v>
+        <v>3356899.86540595</v>
       </c>
       <c r="H11" t="n">
-        <v>3524107.356451234</v>
+        <v>3524671.145460056</v>
       </c>
     </row>
     <row r="12">
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27546.27932351493</v>
+        <v>27556.5771786372</v>
       </c>
       <c r="E12" t="n">
-        <v>2203702.345881194</v>
+        <v>2204526.174290976</v>
       </c>
       <c r="F12" t="n">
-        <v>2313887.463175254</v>
+        <v>2314752.483005525</v>
       </c>
       <c r="G12" t="n">
-        <v>2547755.374631896</v>
+        <v>2548983.389023941</v>
       </c>
       <c r="H12" t="n">
-        <v>2675019.185106535</v>
+        <v>2676570.341361031</v>
       </c>
     </row>
     <row r="13">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>199665.7695149218</v>
+        <v>199717.6549796852</v>
       </c>
       <c r="E13" t="n">
-        <v>9983288.47574609</v>
+        <v>9985882.74898426</v>
       </c>
       <c r="F13" t="n">
-        <v>10482452.89953339</v>
+        <v>10485176.88643347</v>
       </c>
       <c r="G13" t="n">
-        <v>14927012.92893555</v>
+        <v>14928894.70973147</v>
       </c>
       <c r="H13" t="n">
-        <v>15671766.24922621</v>
+        <v>15675838.73935549</v>
       </c>
     </row>
     <row r="14">
@@ -876,19 +876,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>343102.5102973343</v>
+        <v>1242032.577696339</v>
       </c>
       <c r="E14" t="n">
-        <v>2401717572.08134</v>
+        <v>6210162888.481695</v>
       </c>
       <c r="F14" t="n">
-        <v>16091507.73294498</v>
+        <v>41608091.35282736</v>
       </c>
       <c r="G14" t="n">
-        <v>2935382647.622917</v>
+        <v>8388129115.10111</v>
       </c>
       <c r="H14" t="n">
-        <v>19666635.8902432</v>
+        <v>56201974.14075934</v>
       </c>
     </row>
     <row r="15">
@@ -908,19 +908,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63007.43204725609</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>189022296.1417682</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1266449.384149847</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>368537400.861926</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2469261.261931966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>355822.471494653</v>
+        <v>361706.1057565368</v>
       </c>
       <c r="E16" t="n">
-        <v>2063770334.668987</v>
+        <v>1808530528.782684</v>
       </c>
       <c r="F16" t="n">
-        <v>13827261.24228221</v>
+        <v>12117154.54284398</v>
       </c>
       <c r="G16" t="n">
-        <v>3087791825.383449</v>
+        <v>2433594850.140555</v>
       </c>
       <c r="H16" t="n">
-        <v>20687518.49269912</v>
+        <v>16305711.24750468</v>
       </c>
     </row>
     <row r="17">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1818165.718684715</v>
+        <v>2469876.514344323</v>
       </c>
       <c r="E17" t="n">
-        <v>909082859.3423575</v>
+        <v>1481925908.606594</v>
       </c>
       <c r="F17" t="n">
-        <v>245452372.0224365</v>
+        <v>400119995.3237803</v>
       </c>
       <c r="G17" t="n">
-        <v>1415405648.681677</v>
+        <v>2359522431.683419</v>
       </c>
       <c r="H17" t="n">
-        <v>382160252.4103402</v>
+        <v>637079948.1099746</v>
       </c>
     </row>
     <row r="18">
@@ -1004,19 +1004,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>355725.4203449201</v>
+        <v>390684.2515950699</v>
       </c>
       <c r="E18" t="n">
-        <v>71145084.06898402</v>
+        <v>156273700.638028</v>
       </c>
       <c r="F18" t="n">
-        <v>19209172.69862568</v>
+        <v>42193899.17226755</v>
       </c>
       <c r="G18" t="n">
-        <v>245219318.5147707</v>
+        <v>245904481.6389689</v>
       </c>
       <c r="H18" t="n">
-        <v>66207615.23459653</v>
+        <v>66392881.71606617</v>
       </c>
     </row>
     <row r="19">
@@ -1036,19 +1036,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3786107.348360553</v>
+        <v>3487170.032570411</v>
       </c>
       <c r="E19" t="n">
-        <v>1514442939.344221</v>
+        <v>1220509511.399644</v>
       </c>
       <c r="F19" t="n">
-        <v>408899593.6229397</v>
+        <v>329537568.0779039</v>
       </c>
       <c r="G19" t="n">
-        <v>3086699737.897908</v>
+        <v>2323536264.40199</v>
       </c>
       <c r="H19" t="n">
-        <v>833397949.521125</v>
+        <v>627341888.859417</v>
       </c>
     </row>
     <row r="20">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>69095.68500404894</v>
+        <v>69180.5810800559</v>
       </c>
       <c r="E20" t="n">
-        <v>5527654.800323915</v>
+        <v>5534446.486404472</v>
       </c>
       <c r="F20" t="n">
-        <v>3261316.33219111</v>
+        <v>3265323.426978638</v>
       </c>
       <c r="G20" t="n">
-        <v>8052411.130371864</v>
+        <v>8065763.948123718</v>
       </c>
       <c r="H20" t="n">
-        <v>4751019.300878406</v>
+        <v>4758932.172497045</v>
       </c>
     </row>
     <row r="21">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29327.81073060796</v>
+        <v>29347.69545454545</v>
       </c>
       <c r="E21" t="n">
-        <v>2639502.965754716</v>
+        <v>2641292.59090909</v>
       </c>
       <c r="F21" t="n">
-        <v>1557306.749795283</v>
+        <v>1558362.628636363</v>
       </c>
       <c r="G21" t="n">
-        <v>4356646.284031812</v>
+        <v>4365176.221909091</v>
       </c>
       <c r="H21" t="n">
-        <v>2570289.332430481</v>
+        <v>2575553.753090909</v>
       </c>
     </row>
     <row r="22">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>190450.8674019115</v>
+        <v>190494.8515795193</v>
       </c>
       <c r="E22" t="n">
-        <v>11427052.04411469</v>
+        <v>11429691.09477116</v>
       </c>
       <c r="F22" t="n">
-        <v>6741960.706027667</v>
+        <v>6743517.745914984</v>
       </c>
       <c r="G22" t="n">
-        <v>37747361.91905886</v>
+        <v>37790368.65634504</v>
       </c>
       <c r="H22" t="n">
-        <v>22271324.43397953</v>
+        <v>22297422.37738273</v>
       </c>
     </row>
     <row r="23">
@@ -1260,19 +1260,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>301684.7269366636</v>
+        <v>301276.6092338709</v>
       </c>
       <c r="E26" t="n">
-        <v>15084236.34683318</v>
+        <v>15063830.46169355</v>
       </c>
       <c r="F26" t="n">
-        <v>15838448.16417484</v>
+        <v>15817021.98477822</v>
       </c>
       <c r="G26" t="n">
-        <v>22424225.75320221</v>
+        <v>22387864.83216895</v>
       </c>
       <c r="H26" t="n">
-        <v>23546492.9374066</v>
+        <v>23508613.81851895</v>
       </c>
     </row>
     <row r="27">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>436696.7130439365</v>
+        <v>436806.5271817199</v>
       </c>
       <c r="E27" t="n">
-        <v>21834835.65219682</v>
+        <v>21840326.359086</v>
       </c>
       <c r="F27" t="n">
-        <v>22926577.43480667</v>
+        <v>22932342.67704029</v>
       </c>
       <c r="G27" t="n">
-        <v>21568450.65724003</v>
+        <v>21569506.31223333</v>
       </c>
       <c r="H27" t="n">
-        <v>22647091.53845855</v>
+        <v>22648418.43437218</v>
       </c>
     </row>
     <row r="28">
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2020181.135424502</v>
+        <v>2021103.963188522</v>
       </c>
       <c r="E28" t="n">
-        <v>90908151.09410259</v>
+        <v>90949678.34348349</v>
       </c>
       <c r="F28" t="n">
-        <v>95453558.64880772</v>
+        <v>95497162.26065767</v>
       </c>
       <c r="G28" t="n">
-        <v>108039287.1225024</v>
+        <v>108068428.9116903</v>
       </c>
       <c r="H28" t="n">
-        <v>113453372.56544</v>
+        <v>113464776.4934036</v>
       </c>
     </row>
     <row r="29">
@@ -1356,19 +1356,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1181902.764548035</v>
+        <v>1182503.170410015</v>
       </c>
       <c r="E29" t="n">
-        <v>70914165.87288211</v>
+        <v>70950190.2246009</v>
       </c>
       <c r="F29" t="n">
-        <v>70914165.87288211</v>
+        <v>70950190.2246009</v>
       </c>
       <c r="G29" t="n">
-        <v>183029462.1179087</v>
+        <v>183039665.7477662</v>
       </c>
       <c r="H29" t="n">
-        <v>183029462.1179087</v>
+        <v>183039665.7477662</v>
       </c>
     </row>
     <row r="30">
@@ -1388,19 +1388,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3723537.689904476</v>
+        <v>3721577.229621161</v>
       </c>
       <c r="E30" t="n">
-        <v>297883015.1923581</v>
+        <v>297726178.3696929</v>
       </c>
       <c r="F30" t="n">
-        <v>297883015.1923581</v>
+        <v>297726178.3696929</v>
       </c>
       <c r="G30" t="n">
-        <v>371311178.4372743</v>
+        <v>371004034.0209335</v>
       </c>
       <c r="H30" t="n">
-        <v>371311178.4372743</v>
+        <v>371004034.0209335</v>
       </c>
     </row>
     <row r="31">
@@ -1420,19 +1420,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13431830.93361233</v>
+        <v>13427910.14132605</v>
       </c>
       <c r="E31" t="n">
-        <v>805909856.0167398</v>
+        <v>805674608.479563</v>
       </c>
       <c r="F31" t="n">
-        <v>805909856.0167398</v>
+        <v>805674608.479563</v>
       </c>
       <c r="G31" t="n">
-        <v>1664338170.983904</v>
+        <v>1664255182.915951</v>
       </c>
       <c r="H31" t="n">
-        <v>1664338170.983904</v>
+        <v>1664255182.915951</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>528622.1014547687</v>
+        <v>528992.1572857383</v>
       </c>
       <c r="E32" t="n">
-        <v>42289768.1163815</v>
+        <v>42319372.58285906</v>
       </c>
       <c r="F32" t="n">
-        <v>27065451.59448416</v>
+        <v>27084398.4530298</v>
       </c>
       <c r="G32" t="n">
-        <v>68044236.89925782</v>
+        <v>68081290.64267451</v>
       </c>
       <c r="H32" t="n">
-        <v>43547888.71784384</v>
+        <v>43573083.99562626</v>
       </c>
     </row>
     <row r="33">
@@ -1484,19 +1484,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>222455.1389550545</v>
+        <v>222701.8983346983</v>
       </c>
       <c r="E33" t="n">
-        <v>17796411.11640436</v>
+        <v>17816151.86677586</v>
       </c>
       <c r="F33" t="n">
-        <v>11389703.11449879</v>
+        <v>11402337.19473655</v>
       </c>
       <c r="G33" t="n">
-        <v>16428312.01183078</v>
+        <v>16453216.24896751</v>
       </c>
       <c r="H33" t="n">
-        <v>10515454.41840543</v>
+        <v>10529345.75326454</v>
       </c>
     </row>
     <row r="34">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1656267.84842442</v>
+        <v>1656247.836930534</v>
       </c>
       <c r="E34" t="n">
-        <v>107657410.1475873</v>
+        <v>107656109.4004847</v>
       </c>
       <c r="F34" t="n">
-        <v>68900742.49445587</v>
+        <v>68899910.01631021</v>
       </c>
       <c r="G34" t="n">
-        <v>217120152.2499572</v>
+        <v>217051279.0297465</v>
       </c>
       <c r="H34" t="n">
-        <v>138960872.4828089</v>
+        <v>138909506.0833639</v>
       </c>
     </row>
     <row r="35">
@@ -1548,19 +1548,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>195476.4947003627</v>
+        <v>195101.8598937968</v>
       </c>
       <c r="E35" t="n">
-        <v>9773824.735018136</v>
+        <v>9755092.994689839</v>
       </c>
       <c r="F35" t="n">
-        <v>7134892.056563239</v>
+        <v>7121217.886123583</v>
       </c>
       <c r="G35" t="n">
-        <v>47422597.61430799</v>
+        <v>47318054.08004253</v>
       </c>
       <c r="H35" t="n">
-        <v>34618887.21143423</v>
+        <v>34542784.29419672</v>
       </c>
     </row>
     <row r="36">
@@ -1580,19 +1580,19 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>146971.6124008939</v>
+        <v>146646.9454162185</v>
       </c>
       <c r="E36" t="n">
-        <v>8818296.744053634</v>
+        <v>8798816.72497311</v>
       </c>
       <c r="F36" t="n">
-        <v>6437356.623159152</v>
+        <v>6423136.209230371</v>
       </c>
       <c r="G36" t="n">
-        <v>27442539.46749491</v>
+        <v>27412713.50665373</v>
       </c>
       <c r="H36" t="n">
-        <v>20033700.48636585</v>
+        <v>20011442.17149718</v>
       </c>
     </row>
     <row r="37">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2612887.239163187</v>
+        <v>2612303.759212296</v>
       </c>
       <c r="E37" t="n">
-        <v>148934572.6323017</v>
+        <v>148901314.2751009</v>
       </c>
       <c r="F37" t="n">
-        <v>108722238.0215802</v>
+        <v>108697959.4208236</v>
       </c>
       <c r="G37" t="n">
-        <v>419420659.6304748</v>
+        <v>419875583.2181923</v>
       </c>
       <c r="H37" t="n">
-        <v>306178126.6851423</v>
+        <v>306501600.0683787</v>
       </c>
     </row>
     <row r="38">
@@ -1644,19 +1644,19 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1127371.583610462</v>
+        <v>1127012.623623928</v>
       </c>
       <c r="E38" t="n">
-        <v>56368579.1805231</v>
+        <v>56350631.18119641</v>
       </c>
       <c r="F38" t="n">
-        <v>59187008.13954926</v>
+        <v>59168162.74025622</v>
       </c>
       <c r="G38" t="n">
-        <v>113898351.092165</v>
+        <v>114042407.3845053</v>
       </c>
       <c r="H38" t="n">
-        <v>119591577.5893978</v>
+        <v>119745091.2600424</v>
       </c>
     </row>
     <row r="39">
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>352118.0185434487</v>
+        <v>352080.7212599681</v>
       </c>
       <c r="E39" t="n">
-        <v>13028366.6861076</v>
+        <v>13026986.68661882</v>
       </c>
       <c r="F39" t="n">
-        <v>13679785.02041298</v>
+        <v>13678336.02094976</v>
       </c>
       <c r="G39" t="n">
-        <v>18972118.83912102</v>
+        <v>18927859.57493589</v>
       </c>
       <c r="H39" t="n">
-        <v>19922837.48918833</v>
+        <v>19874956.7151252</v>
       </c>
     </row>
     <row r="40">
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5379620.116865508</v>
+        <v>5378025.580769834</v>
       </c>
       <c r="E40" t="n">
-        <v>215184804.6746203</v>
+        <v>215121023.2307934</v>
       </c>
       <c r="F40" t="n">
-        <v>225944044.9083514</v>
+        <v>225877074.392333</v>
       </c>
       <c r="G40" t="n">
-        <v>307983251.6905503</v>
+        <v>307784403.9874576</v>
       </c>
       <c r="H40" t="n">
-        <v>323422761.4259543</v>
+        <v>323219337.404267</v>
       </c>
     </row>
     <row r="41">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>45087.85585845276</v>
+        <v>45089.8987758088</v>
       </c>
       <c r="E41" t="n">
-        <v>2254392.792922638</v>
+        <v>2254494.93879044</v>
       </c>
       <c r="F41" t="n">
-        <v>2367112.43256877</v>
+        <v>2367219.685729962</v>
       </c>
       <c r="G41" t="n">
-        <v>5134605.025160599</v>
+        <v>5133484.975625832</v>
       </c>
       <c r="H41" t="n">
-        <v>5391154.924995196</v>
+        <v>5390046.499660184</v>
       </c>
     </row>
     <row r="42">
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>33085.87826578289</v>
+        <v>33109.46503683241</v>
       </c>
       <c r="E42" t="n">
-        <v>2646870.261262632</v>
+        <v>2648757.202946593</v>
       </c>
       <c r="F42" t="n">
-        <v>2779213.774325763</v>
+        <v>2781195.063093922</v>
       </c>
       <c r="G42" t="n">
-        <v>3060112.88080226</v>
+        <v>3062625.515906997</v>
       </c>
       <c r="H42" t="n">
-        <v>3212969.638390176</v>
+        <v>3215922.339027531</v>
       </c>
     </row>
     <row r="43">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>288776.5078236383</v>
+        <v>288821.0836146267</v>
       </c>
       <c r="E43" t="n">
-        <v>14438825.39118192</v>
+        <v>14441054.18073134</v>
       </c>
       <c r="F43" t="n">
-        <v>15160766.66074101</v>
+        <v>15163106.8897679</v>
       </c>
       <c r="G43" t="n">
-        <v>21588931.7248952</v>
+        <v>21589376.00019335</v>
       </c>
       <c r="H43" t="n">
-        <v>22666068.09907737</v>
+        <v>22669566.85291205</v>
       </c>
     </row>
     <row r="44">
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>569570.1551552957</v>
+        <v>1553042.350786698</v>
       </c>
       <c r="E44" t="n">
-        <v>3986991086.08707</v>
+        <v>7765211753.93349</v>
       </c>
       <c r="F44" t="n">
-        <v>26712840.27678337</v>
+        <v>52026918.75135438</v>
       </c>
       <c r="G44" t="n">
-        <v>4872906201.117168</v>
+        <v>10488549168.1555</v>
       </c>
       <c r="H44" t="n">
-        <v>32647761.29350155</v>
+        <v>70275166.37309809</v>
       </c>
     </row>
     <row r="45">
@@ -1868,19 +1868,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>128499.1655606949</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>385497496.6820847</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2582833.227769968</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>751605754.2727162</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>5035882.298323633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1900,19 +1900,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>700591.8298330315</v>
+        <v>513117.9639802033</v>
       </c>
       <c r="E46" t="n">
-        <v>4063432613.031583</v>
+        <v>2565589819.901017</v>
       </c>
       <c r="F46" t="n">
-        <v>27224998.5073116</v>
+        <v>17189451.79333681</v>
       </c>
       <c r="G46" t="n">
-        <v>6079665840.108064</v>
+        <v>3452308973.455206</v>
       </c>
       <c r="H46" t="n">
-        <v>40732408.98649246</v>
+        <v>23131357.81622757</v>
       </c>
     </row>
     <row r="47">
@@ -1932,19 +1932,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1985075.490241494</v>
+        <v>2530117.404938088</v>
       </c>
       <c r="E47" t="n">
-        <v>992537745.120747</v>
+        <v>1518070442.962853</v>
       </c>
       <c r="F47" t="n">
-        <v>267985191.1826017</v>
+        <v>409879019.5999702</v>
       </c>
       <c r="G47" t="n">
-        <v>1545341567.643198</v>
+        <v>2417071759.285454</v>
       </c>
       <c r="H47" t="n">
-        <v>417243017.2938596</v>
+        <v>652618483.4297304</v>
       </c>
     </row>
     <row r="48">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>379871.6816837591</v>
+        <v>484348.485041084</v>
       </c>
       <c r="E48" t="n">
-        <v>75974336.33675182</v>
+        <v>193739394.0164336</v>
       </c>
       <c r="F48" t="n">
-        <v>20513070.81092299</v>
+        <v>52309636.38443707</v>
       </c>
       <c r="G48" t="n">
-        <v>261864543.7686993</v>
+        <v>304858623.4545591</v>
       </c>
       <c r="H48" t="n">
-        <v>70701717.39498125</v>
+        <v>82310181.54788181</v>
       </c>
     </row>
     <row r="49">
@@ -1996,19 +1996,19 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4355146.109277415</v>
+        <v>3960773.762386687</v>
       </c>
       <c r="E49" t="n">
-        <v>1742058443.710966</v>
+        <v>1386270816.83534</v>
       </c>
       <c r="F49" t="n">
-        <v>470355779.8019608</v>
+        <v>374293120.5455419</v>
       </c>
       <c r="G49" t="n">
-        <v>3550619968.510598</v>
+        <v>2639103165.615873</v>
       </c>
       <c r="H49" t="n">
-        <v>958654761.5741446</v>
+        <v>712543199.8533651</v>
       </c>
     </row>
     <row r="50">
@@ -2028,19 +2028,19 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>89873.75929186062</v>
+        <v>89990.30497504493</v>
       </c>
       <c r="E50" t="n">
-        <v>7189900.74334885</v>
+        <v>7199224.398003594</v>
       </c>
       <c r="F50" t="n">
-        <v>4242041.438575822</v>
+        <v>4247542.394822121</v>
       </c>
       <c r="G50" t="n">
-        <v>10473887.90787344</v>
+        <v>10491969.65704049</v>
       </c>
       <c r="H50" t="n">
-        <v>6179719.688908337</v>
+        <v>6190433.079233341</v>
       </c>
     </row>
     <row r="51">
@@ -2060,19 +2060,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>43372.9686690083</v>
+        <v>43381.69517045454</v>
       </c>
       <c r="E51" t="n">
-        <v>3903567.180210747</v>
+        <v>3904352.565340909</v>
       </c>
       <c r="F51" t="n">
-        <v>2303104.636324341</v>
+        <v>2303568.013551136</v>
       </c>
       <c r="G51" t="n">
-        <v>6443054.495781184</v>
+        <v>6452593.339653409</v>
       </c>
       <c r="H51" t="n">
-        <v>3801206.974151888</v>
+        <v>3807177.568159091</v>
       </c>
     </row>
     <row r="52">
@@ -2092,19 +2092,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>264906.9270405475</v>
+        <v>264950.9298302322</v>
       </c>
       <c r="E52" t="n">
-        <v>15894415.62243285</v>
+        <v>15897055.78981393</v>
       </c>
       <c r="F52" t="n">
-        <v>9377705.217235381</v>
+        <v>9379262.91599022</v>
       </c>
       <c r="G52" t="n">
-        <v>52504552.93943651</v>
+        <v>52560965.45972147</v>
       </c>
       <c r="H52" t="n">
-        <v>30978216.04812162</v>
+        <v>31012506.33662868</v>
       </c>
     </row>
     <row r="53">
@@ -2220,19 +2220,19 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>301684.7269366636</v>
+        <v>301276.6092338709</v>
       </c>
       <c r="E56" t="n">
-        <v>15084236.34683318</v>
+        <v>15063830.46169355</v>
       </c>
       <c r="F56" t="n">
-        <v>15838448.16417484</v>
+        <v>15817021.98477822</v>
       </c>
       <c r="G56" t="n">
-        <v>22424225.75320221</v>
+        <v>22387864.83216895</v>
       </c>
       <c r="H56" t="n">
-        <v>23546492.9374066</v>
+        <v>23508613.81851895</v>
       </c>
     </row>
     <row r="57">
@@ -2252,19 +2252,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>502665.4125133465</v>
+        <v>502669.7731269517</v>
       </c>
       <c r="E57" t="n">
-        <v>25133270.62566733</v>
+        <v>25133488.65634758</v>
       </c>
       <c r="F57" t="n">
-        <v>26389934.15695069</v>
+        <v>26390163.08916496</v>
       </c>
       <c r="G57" t="n">
-        <v>24826644.72403419</v>
+        <v>24821833.39700888</v>
       </c>
       <c r="H57" t="n">
-        <v>26068228.29294215</v>
+        <v>26063427.73663245</v>
       </c>
     </row>
     <row r="58">
@@ -2284,19 +2284,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2640267.926279508</v>
+        <v>2641345.734062686</v>
       </c>
       <c r="E58" t="n">
-        <v>118812056.6825779</v>
+        <v>118860558.0328209</v>
       </c>
       <c r="F58" t="n">
-        <v>124752659.5167067</v>
+        <v>124803585.9344619</v>
       </c>
       <c r="G58" t="n">
-        <v>141201528.6974281</v>
+        <v>141232756.4003318</v>
       </c>
       <c r="H58" t="n">
-        <v>148277446.7398572</v>
+        <v>148285149.5102792</v>
       </c>
     </row>
     <row r="59">
@@ -2316,19 +2316,19 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1496245.741244191</v>
+        <v>1497769.330596982</v>
       </c>
       <c r="E59" t="n">
-        <v>89774744.47465147</v>
+        <v>89866159.83581892</v>
       </c>
       <c r="F59" t="n">
-        <v>89774744.47465147</v>
+        <v>89866159.83581892</v>
       </c>
       <c r="G59" t="n">
-        <v>231708615.4890755</v>
+        <v>231839714.6831068</v>
       </c>
       <c r="H59" t="n">
-        <v>231708615.4890755</v>
+        <v>231839714.6831068</v>
       </c>
     </row>
     <row r="60">
@@ -2348,19 +2348,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4355746.04617503</v>
+        <v>4353061.962388569</v>
       </c>
       <c r="E60" t="n">
-        <v>348459683.6940024</v>
+        <v>348244956.9910855</v>
       </c>
       <c r="F60" t="n">
-        <v>348459683.6940024</v>
+        <v>348244956.9910855</v>
       </c>
       <c r="G60" t="n">
-        <v>434354995.724574</v>
+        <v>433956747.0305164</v>
       </c>
       <c r="H60" t="n">
-        <v>434354995.724574</v>
+        <v>433956747.0305164</v>
       </c>
     </row>
     <row r="61">
@@ -2380,19 +2380,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>17615577.46088879</v>
+        <v>17608701.49212031</v>
       </c>
       <c r="E61" t="n">
-        <v>1056934647.653327</v>
+        <v>1056522089.527219</v>
       </c>
       <c r="F61" t="n">
-        <v>1056934647.653327</v>
+        <v>1056522089.527219</v>
       </c>
       <c r="G61" t="n">
-        <v>2182746203.17873</v>
+        <v>2182422462.933391</v>
       </c>
       <c r="H61" t="n">
-        <v>2182746203.17873</v>
+        <v>2182422462.933391</v>
       </c>
     </row>
     <row r="62">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>744620.0244246485</v>
+        <v>744914.5592877588</v>
       </c>
       <c r="E62" t="n">
-        <v>59569601.95397188</v>
+        <v>59593164.7430207</v>
       </c>
       <c r="F62" t="n">
-        <v>38124545.25054201</v>
+        <v>38139625.43553325</v>
       </c>
       <c r="G62" t="n">
-        <v>95847489.54394075</v>
+        <v>95870503.78033455</v>
       </c>
       <c r="H62" t="n">
-        <v>61341797.61210254</v>
+        <v>61358612.2485327</v>
       </c>
     </row>
     <row r="63">
@@ -2444,19 +2444,19 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>276483.6825324494</v>
+        <v>276781.579060879</v>
       </c>
       <c r="E63" t="n">
-        <v>22118694.60259596</v>
+        <v>22142526.32487032</v>
       </c>
       <c r="F63" t="n">
-        <v>14155964.54566141</v>
+        <v>14171216.84791701</v>
       </c>
       <c r="G63" t="n">
-        <v>20418319.95502139</v>
+        <v>20448623.06101774</v>
       </c>
       <c r="H63" t="n">
-        <v>13069383.67330888</v>
+        <v>13086233.05799836</v>
       </c>
     </row>
     <row r="64">
@@ -2476,19 +2476,19 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2528190.833261949</v>
+        <v>2528330.388054061</v>
       </c>
       <c r="E64" t="n">
-        <v>164332404.1620267</v>
+        <v>164341475.223514</v>
       </c>
       <c r="F64" t="n">
-        <v>105172738.6636971</v>
+        <v>105178544.143049</v>
       </c>
       <c r="G64" t="n">
-        <v>331420536.3323089</v>
+        <v>331337697.3544847</v>
       </c>
       <c r="H64" t="n">
-        <v>212115210.9106775</v>
+        <v>212051069.6460941</v>
       </c>
     </row>
     <row r="65">
@@ -2508,19 +2508,19 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>526975.0052971619</v>
+        <v>526730.9806613566</v>
       </c>
       <c r="E65" t="n">
-        <v>26348750.26485809</v>
+        <v>26336549.03306783</v>
       </c>
       <c r="F65" t="n">
-        <v>19234587.69334641</v>
+        <v>19225680.79413952</v>
       </c>
       <c r="G65" t="n">
-        <v>127844136.2850915</v>
+        <v>127748064.7397988</v>
       </c>
       <c r="H65" t="n">
-        <v>93327273.43812737</v>
+        <v>93257720.12609319</v>
       </c>
     </row>
     <row r="66">
@@ -2540,19 +2540,19 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>217434.0328100946</v>
+        <v>217107.940210798</v>
       </c>
       <c r="E66" t="n">
-        <v>13046041.96860567</v>
+        <v>13026476.41264788</v>
       </c>
       <c r="F66" t="n">
-        <v>9523610.637082143</v>
+        <v>9509327.781232951</v>
       </c>
       <c r="G66" t="n">
-        <v>40599282.60630086</v>
+        <v>40583987.26360447</v>
       </c>
       <c r="H66" t="n">
-        <v>29638433.012344</v>
+        <v>29626549.5211655</v>
       </c>
     </row>
     <row r="67">
@@ -2572,19 +2572,19 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3501736.034309916</v>
+        <v>3500980.257204611</v>
       </c>
       <c r="E67" t="n">
-        <v>199598953.9556652</v>
+        <v>199555874.6606628</v>
       </c>
       <c r="F67" t="n">
-        <v>145707236.3876356</v>
+        <v>145675788.5022838</v>
       </c>
       <c r="G67" t="n">
-        <v>562098668.2274278</v>
+        <v>562712556.7404971</v>
       </c>
       <c r="H67" t="n">
-        <v>410333428.500436</v>
+        <v>410770013.577817</v>
       </c>
     </row>
     <row r="68">
@@ -2604,19 +2604,19 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1944120.351160071</v>
+        <v>1943606.29636962</v>
       </c>
       <c r="E68" t="n">
-        <v>97206017.55800356</v>
+        <v>97180314.818481</v>
       </c>
       <c r="F68" t="n">
-        <v>102066318.4359037</v>
+        <v>102039330.559405</v>
       </c>
       <c r="G68" t="n">
-        <v>196414479.077702</v>
+        <v>196673521.1296418</v>
       </c>
       <c r="H68" t="n">
-        <v>206232286.8510603</v>
+        <v>206508168.9892721</v>
       </c>
     </row>
     <row r="69">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>936355.6412981447</v>
+        <v>936412.7103807814</v>
       </c>
       <c r="E69" t="n">
-        <v>34645158.72803135</v>
+        <v>34647270.28408891</v>
       </c>
       <c r="F69" t="n">
-        <v>36377416.66443292</v>
+        <v>36379633.79829336</v>
       </c>
       <c r="G69" t="n">
-        <v>50450841.95314404</v>
+        <v>50341547.31007081</v>
       </c>
       <c r="H69" t="n">
-        <v>52979002.18464903</v>
+        <v>52860497.50099511</v>
       </c>
     </row>
     <row r="70">
@@ -2668,19 +2668,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9033653.642882708</v>
+        <v>9034246.471390417</v>
       </c>
       <c r="E70" t="n">
-        <v>361346145.7153083</v>
+        <v>361369858.8556167</v>
       </c>
       <c r="F70" t="n">
-        <v>379413453.0010738</v>
+        <v>379438351.7983975</v>
       </c>
       <c r="G70" t="n">
-        <v>517176671.0550351</v>
+        <v>517029925.5576735</v>
       </c>
       <c r="H70" t="n">
-        <v>543103257.0101084</v>
+        <v>542958212.930564</v>
       </c>
     </row>
     <row r="71">
@@ -2700,19 +2700,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>61499.70608491451</v>
+        <v>61526.75706389204</v>
       </c>
       <c r="E71" t="n">
-        <v>3074985.304245726</v>
+        <v>3076337.853194602</v>
       </c>
       <c r="F71" t="n">
-        <v>3228734.569458012</v>
+        <v>3230154.745854332</v>
       </c>
       <c r="G71" t="n">
-        <v>7003586.528950064</v>
+        <v>7004821.291724108</v>
       </c>
       <c r="H71" t="n">
-        <v>7353519.856573228</v>
+        <v>7354908.539417654</v>
       </c>
     </row>
     <row r="72">
@@ -2732,19 +2732,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>49723.6612416354</v>
+        <v>49738.43402394106</v>
       </c>
       <c r="E72" t="n">
-        <v>3977892.899330832</v>
+        <v>3979074.721915285</v>
       </c>
       <c r="F72" t="n">
-        <v>4176787.544297373</v>
+        <v>4178028.458011049</v>
       </c>
       <c r="G72" t="n">
-        <v>4598941.428238858</v>
+        <v>4600805.147214548</v>
       </c>
       <c r="H72" t="n">
-        <v>4828664.743175213</v>
+        <v>4831094.096745395</v>
       </c>
     </row>
     <row r="73">
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>511601.5668846602</v>
+        <v>511653.9328183814</v>
       </c>
       <c r="E73" t="n">
-        <v>25580078.34423301</v>
+        <v>25582696.64091907</v>
       </c>
       <c r="F73" t="n">
-        <v>26859082.26144466</v>
+        <v>26861831.47296502</v>
       </c>
       <c r="G73" t="n">
-        <v>38247333.1402972</v>
+        <v>38246131.47817401</v>
       </c>
       <c r="H73" t="n">
-        <v>40155606.98477698</v>
+        <v>40159717.18691476</v>
       </c>
     </row>
     <row r="74">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1793390.528022874</v>
+        <v>3238514.669469936</v>
       </c>
       <c r="E74" t="n">
-        <v>12553733696.16012</v>
+        <v>16192573347.34968</v>
       </c>
       <c r="F74" t="n">
-        <v>84110015.76427278</v>
+        <v>108490241.4272428</v>
       </c>
       <c r="G74" t="n">
-        <v>15343191257.35217</v>
+        <v>21871470745.99868</v>
       </c>
       <c r="H74" t="n">
-        <v>102797145.0662711</v>
+        <v>146542788.7935146</v>
       </c>
     </row>
     <row r="75">
@@ -2828,19 +2828,19 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>342285.0567650301</v>
+        <v>62813.9453164557</v>
       </c>
       <c r="E75" t="n">
-        <v>1026855170.29509</v>
+        <v>188441835.9493671</v>
       </c>
       <c r="F75" t="n">
-        <v>6879929.640977105</v>
+        <v>1262560.30086076</v>
       </c>
       <c r="G75" t="n">
-        <v>2002062948.374905</v>
+        <v>229168513.6741975</v>
       </c>
       <c r="H75" t="n">
-        <v>13414151.37462153</v>
+        <v>1535172.823534177</v>
       </c>
     </row>
     <row r="76">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1007400.33612873</v>
+        <v>1220803.82306908</v>
       </c>
       <c r="E76" t="n">
-        <v>5842921949.546634</v>
+        <v>6104019115.3454</v>
       </c>
       <c r="F76" t="n">
-        <v>39147577.06196245</v>
+        <v>40896928.07281418</v>
       </c>
       <c r="G76" t="n">
-        <v>8742119376.891506</v>
+        <v>8213690201.991077</v>
       </c>
       <c r="H76" t="n">
-        <v>58570255.54252436</v>
+        <v>55033836.34395412</v>
       </c>
     </row>
     <row r="77">
@@ -2892,19 +2892,19 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2430584.412303914</v>
+        <v>2627690.678435029</v>
       </c>
       <c r="E77" t="n">
-        <v>1215292206.151957</v>
+        <v>1576614407.061018</v>
       </c>
       <c r="F77" t="n">
-        <v>328128895.6610284</v>
+        <v>425685889.9064747</v>
       </c>
       <c r="G77" t="n">
-        <v>1892161353.290351</v>
+        <v>2510285458.922552</v>
       </c>
       <c r="H77" t="n">
-        <v>510884537.6221597</v>
+        <v>677786533.5955313</v>
       </c>
     </row>
     <row r="78">
@@ -2924,19 +2924,19 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>722835.8433059769</v>
+        <v>614478.5424974773</v>
       </c>
       <c r="E78" t="n">
-        <v>144567168.6611954</v>
+        <v>245791416.9989909</v>
       </c>
       <c r="F78" t="n">
-        <v>39033135.53852276</v>
+        <v>66363682.58972754</v>
       </c>
       <c r="G78" t="n">
-        <v>498286888.5829752</v>
+        <v>386765084.2187621</v>
       </c>
       <c r="H78" t="n">
-        <v>134534207.1561084</v>
+        <v>104424483.5120213</v>
       </c>
     </row>
     <row r="79">
@@ -2956,19 +2956,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5060785.255659935</v>
+        <v>4863587.639663346</v>
       </c>
       <c r="E79" t="n">
-        <v>2024314102.263974</v>
+        <v>1702255673.882171</v>
       </c>
       <c r="F79" t="n">
-        <v>546564807.6112729</v>
+        <v>459609031.9481862</v>
       </c>
       <c r="G79" t="n">
-        <v>4125906395.381875</v>
+        <v>3240657080.184084</v>
       </c>
       <c r="H79" t="n">
-        <v>1113980050.475865</v>
+        <v>874959416.3754359</v>
       </c>
     </row>
     <row r="80">
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>135347.5897184086</v>
+        <v>135455.492293871</v>
       </c>
       <c r="E80" t="n">
-        <v>10827807.17747269</v>
+        <v>10836439.38350968</v>
       </c>
       <c r="F80" t="n">
-        <v>6388406.234708886</v>
+        <v>6393499.236270712</v>
       </c>
       <c r="G80" t="n">
-        <v>15773408.10578334</v>
+        <v>15792755.84654242</v>
       </c>
       <c r="H80" t="n">
-        <v>9306500.269037776</v>
+        <v>9317983.314895388</v>
       </c>
     </row>
     <row r="81">
@@ -3020,19 +3020,19 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>52854.01831268337</v>
+        <v>52851.44573863637</v>
       </c>
       <c r="E81" t="n">
-        <v>4756861.648141503</v>
+        <v>4756630.116477273</v>
       </c>
       <c r="F81" t="n">
-        <v>2806548.372403487</v>
+        <v>2806411.768721591</v>
       </c>
       <c r="G81" t="n">
-        <v>7851464.420349116</v>
+        <v>7861124.039164774</v>
       </c>
       <c r="H81" t="n">
-        <v>4632126.164923571</v>
+        <v>4638242.878022728</v>
       </c>
     </row>
     <row r="82">
@@ -3052,19 +3052,19 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>413412.5376088511</v>
+        <v>413308.0811612114</v>
       </c>
       <c r="E82" t="n">
-        <v>24804752.25653107</v>
+        <v>24798484.86967269</v>
       </c>
       <c r="F82" t="n">
-        <v>14634803.83135333</v>
+        <v>14631106.07310688</v>
       </c>
       <c r="G82" t="n">
-        <v>81938364.95407428</v>
+        <v>81992057.14076112</v>
       </c>
       <c r="H82" t="n">
-        <v>48344462.14797904</v>
+        <v>48377710.89991979</v>
       </c>
     </row>
     <row r="83">
@@ -3180,19 +3180,19 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>376166.8556100753</v>
+        <v>375624.7964112903</v>
       </c>
       <c r="E86" t="n">
-        <v>18808342.78050376</v>
+        <v>18781239.82056452</v>
       </c>
       <c r="F86" t="n">
-        <v>19748759.91952895</v>
+        <v>19720301.81159274</v>
       </c>
       <c r="G86" t="n">
-        <v>27960482.37749689</v>
+        <v>27912678.62132298</v>
       </c>
       <c r="H86" t="n">
-        <v>29359823.08036638</v>
+        <v>29310002.86397298</v>
       </c>
     </row>
     <row r="87">
@@ -3212,19 +3212,19 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>711525.9505472208</v>
+        <v>711545.0671498919</v>
       </c>
       <c r="E87" t="n">
-        <v>35576297.52736104</v>
+        <v>35577253.35749459</v>
       </c>
       <c r="F87" t="n">
-        <v>37355112.40372909</v>
+        <v>37356116.02536932</v>
       </c>
       <c r="G87" t="n">
-        <v>35142266.69752724</v>
+        <v>35136095.41586166</v>
       </c>
       <c r="H87" t="n">
-        <v>36899735.79537887</v>
+        <v>36893611.73172189</v>
       </c>
     </row>
     <row r="88">
@@ -3244,19 +3244,19 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3812431.078603552</v>
+        <v>3813756.215363149</v>
       </c>
       <c r="E88" t="n">
-        <v>171559398.5371599</v>
+        <v>171619029.6913417</v>
       </c>
       <c r="F88" t="n">
-        <v>180137368.4640178</v>
+        <v>180199981.1759088</v>
       </c>
       <c r="G88" t="n">
-        <v>203888814.083718</v>
+        <v>203921544.8354676</v>
       </c>
       <c r="H88" t="n">
-        <v>214106129.3743755</v>
+        <v>214104273.9304872</v>
       </c>
     </row>
     <row r="89">
@@ -3276,19 +3276,19 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1991399.857939353</v>
+        <v>1993624.844677455</v>
       </c>
       <c r="E89" t="n">
-        <v>119483991.4763612</v>
+        <v>119617490.6806473</v>
       </c>
       <c r="F89" t="n">
-        <v>119483991.4763612</v>
+        <v>119617490.6806473</v>
       </c>
       <c r="G89" t="n">
-        <v>308388182.0004882</v>
+        <v>308593189.7076232</v>
       </c>
       <c r="H89" t="n">
-        <v>308388182.0004882</v>
+        <v>308593189.7076232</v>
       </c>
     </row>
     <row r="90">
@@ -3308,19 +3308,19 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5342678.651750367</v>
+        <v>5339565.575613256</v>
       </c>
       <c r="E90" t="n">
-        <v>427414292.1400294</v>
+        <v>427165246.0490605</v>
       </c>
       <c r="F90" t="n">
-        <v>427414292.1400294</v>
+        <v>427165246.0490605</v>
       </c>
       <c r="G90" t="n">
-        <v>532771915.1525466</v>
+        <v>532301292.2328854</v>
       </c>
       <c r="H90" t="n">
-        <v>532771915.1525466</v>
+        <v>532301292.2328854</v>
       </c>
     </row>
     <row r="91">
@@ -3340,19 +3340,19 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>23471221.78889915</v>
+        <v>23464665.95126113</v>
       </c>
       <c r="E91" t="n">
-        <v>1408273307.333949</v>
+        <v>1407879957.075668</v>
       </c>
       <c r="F91" t="n">
-        <v>1408273307.333949</v>
+        <v>1407879957.075668</v>
       </c>
       <c r="G91" t="n">
-        <v>2908319091.862494</v>
+        <v>2908210697.999304</v>
       </c>
       <c r="H91" t="n">
-        <v>2908319091.862494</v>
+        <v>2908210697.999304</v>
       </c>
     </row>
     <row r="92">
@@ -3372,19 +3372,19 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>944346.7974953654</v>
+        <v>944704.8278068698</v>
       </c>
       <c r="E92" t="n">
-        <v>75547743.79962923</v>
+        <v>75576386.22454958</v>
       </c>
       <c r="F92" t="n">
-        <v>48350556.03176271</v>
+        <v>48368887.18371174</v>
       </c>
       <c r="G92" t="n">
-        <v>121556319.7736034</v>
+        <v>121583511.3387441</v>
       </c>
       <c r="H92" t="n">
-        <v>77795289.1776682</v>
+        <v>77815336.66645187</v>
       </c>
     </row>
     <row r="93">
@@ -3404,19 +3404,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>327037.8736377486</v>
+        <v>327315.0512148512</v>
       </c>
       <c r="E93" t="n">
-        <v>26163029.89101989</v>
+        <v>26185204.0971881</v>
       </c>
       <c r="F93" t="n">
-        <v>16744339.13025273</v>
+        <v>16758530.62220038</v>
       </c>
       <c r="G93" t="n">
-        <v>24151746.96814773</v>
+        <v>24182035.9837532</v>
       </c>
       <c r="H93" t="n">
-        <v>15459080.28685638</v>
+        <v>15475455.62143817</v>
       </c>
     </row>
     <row r="94">
@@ -3436,19 +3436,19 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3653823.851224482</v>
+        <v>3653884.087166741</v>
       </c>
       <c r="E94" t="n">
-        <v>237498550.3295913</v>
+        <v>237502465.6658382</v>
       </c>
       <c r="F94" t="n">
-        <v>151999072.2109385</v>
+        <v>152001578.0261364</v>
       </c>
       <c r="G94" t="n">
-        <v>478979768.6570174</v>
+        <v>478841509.6232014</v>
       </c>
       <c r="H94" t="n">
-        <v>306555821.1177341</v>
+        <v>306451258.3906746</v>
       </c>
     </row>
     <row r="95">
@@ -3468,19 +3468,19 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>607688.0064706707</v>
+        <v>607326.1056287714</v>
       </c>
       <c r="E95" t="n">
-        <v>30384400.32353354</v>
+        <v>30366305.28143857</v>
       </c>
       <c r="F95" t="n">
-        <v>22180612.23617948</v>
+        <v>22167402.85545015</v>
       </c>
       <c r="G95" t="n">
-        <v>147425110.3697847</v>
+        <v>147294800.3981459</v>
       </c>
       <c r="H95" t="n">
-        <v>107621545.9459558</v>
+        <v>107527087.001574</v>
       </c>
     </row>
     <row r="96">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>287896.4532192954</v>
+        <v>287568.9350053775</v>
       </c>
       <c r="E96" t="n">
-        <v>17273787.19315773</v>
+        <v>17254136.10032265</v>
       </c>
       <c r="F96" t="n">
-        <v>12609864.65100514</v>
+        <v>12595519.35323553</v>
       </c>
       <c r="G96" t="n">
-        <v>53756025.74510684</v>
+        <v>53755261.02055522</v>
       </c>
       <c r="H96" t="n">
-        <v>39243165.53832216</v>
+        <v>39241656.87083381</v>
       </c>
     </row>
     <row r="97">
@@ -3532,19 +3532,19 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5173531.842904576</v>
+        <v>5173083.658035543</v>
       </c>
       <c r="E97" t="n">
-        <v>294891315.0455608</v>
+        <v>294865768.5080259</v>
       </c>
       <c r="F97" t="n">
-        <v>215270659.9832594</v>
+        <v>215252011.0108589</v>
       </c>
       <c r="G97" t="n">
-        <v>830455331.4230427</v>
+        <v>831469736.3560528</v>
       </c>
       <c r="H97" t="n">
-        <v>606234461.3515582</v>
+        <v>606957905.5973102</v>
       </c>
     </row>
     <row r="98">
@@ -3564,19 +3564,19 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2305797.353198965</v>
+        <v>2305471.084612506</v>
       </c>
       <c r="E98" t="n">
-        <v>115289867.6599483</v>
+        <v>115273554.2306253</v>
       </c>
       <c r="F98" t="n">
-        <v>121054361.0429457</v>
+        <v>121037231.9421566</v>
       </c>
       <c r="G98" t="n">
-        <v>232954706.5936914</v>
+        <v>233290619.0519395</v>
       </c>
       <c r="H98" t="n">
-        <v>244598983.2273462</v>
+        <v>244956302.7400787</v>
       </c>
     </row>
     <row r="99">
@@ -3596,19 +3596,19 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1198673.329630271</v>
+        <v>1198730.277458134</v>
       </c>
       <c r="E99" t="n">
-        <v>44350913.19632003</v>
+        <v>44353020.26595096</v>
       </c>
       <c r="F99" t="n">
-        <v>46568458.85613603</v>
+        <v>46570671.27924851</v>
       </c>
       <c r="G99" t="n">
-        <v>64584519.00047901</v>
+        <v>64443739.71614929</v>
       </c>
       <c r="H99" t="n">
-        <v>67820936.99048074</v>
+        <v>67668324.16251168</v>
       </c>
     </row>
     <row r="100">
@@ -3628,19 +3628,19 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>11608217.77355074</v>
+        <v>11607368.56147683</v>
       </c>
       <c r="E100" t="n">
-        <v>464328710.9420296</v>
+        <v>464294742.4590732</v>
       </c>
       <c r="F100" t="n">
-        <v>487545146.489131</v>
+        <v>487509479.5820269</v>
       </c>
       <c r="G100" t="n">
-        <v>664570467.5357798</v>
+        <v>664289702.773319</v>
       </c>
       <c r="H100" t="n">
-        <v>697886052.5458704</v>
+        <v>697602850.5447575</v>
       </c>
     </row>
     <row r="101">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>69818.59801045265</v>
+        <v>69849.21695659243</v>
       </c>
       <c r="E101" t="n">
-        <v>3490929.900522633</v>
+        <v>3492460.847829621</v>
       </c>
       <c r="F101" t="n">
-        <v>3665476.395548764</v>
+        <v>3667083.890221103</v>
       </c>
       <c r="G101" t="n">
-        <v>7950941.941430348</v>
+        <v>7952333.350508047</v>
       </c>
       <c r="H101" t="n">
-        <v>8348209.764109823</v>
+        <v>8349775.394991059</v>
       </c>
     </row>
     <row r="102">
@@ -3692,19 +3692,19 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>65964.80906788498</v>
+        <v>65981.37337384898</v>
       </c>
       <c r="E102" t="n">
-        <v>5277184.725430799</v>
+        <v>5278509.869907918</v>
       </c>
       <c r="F102" t="n">
-        <v>5541043.961702338</v>
+        <v>5542435.363403315</v>
       </c>
       <c r="G102" t="n">
-        <v>6101085.190688682</v>
+        <v>6103277.037081031</v>
       </c>
       <c r="H102" t="n">
-        <v>6405842.60858231</v>
+        <v>6408770.795801952</v>
       </c>
     </row>
     <row r="103">
@@ -3724,19 +3724,19 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>614810.1486287062</v>
+        <v>614899.8196161211</v>
       </c>
       <c r="E103" t="n">
-        <v>30740507.43143531</v>
+        <v>30744990.98080606</v>
       </c>
       <c r="F103" t="n">
-        <v>32277532.80300708</v>
+        <v>32282240.52984636</v>
       </c>
       <c r="G103" t="n">
-        <v>45963206.71148208</v>
+        <v>45963761.51630505</v>
       </c>
       <c r="H103" t="n">
-        <v>48256448.56586715</v>
+        <v>48263486.84166934</v>
       </c>
     </row>
     <row r="104">
@@ -3756,19 +3756,19 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3814567.152750209</v>
+        <v>5700508.163546523</v>
       </c>
       <c r="E104" t="n">
-        <v>26701970069.25146</v>
+        <v>28502540817.73262</v>
       </c>
       <c r="F104" t="n">
-        <v>178903199.4639848</v>
+        <v>190967023.4788085</v>
       </c>
       <c r="G104" t="n">
-        <v>32635185964.31067</v>
+        <v>38498666907.91962</v>
       </c>
       <c r="H104" t="n">
-        <v>218650989.195642</v>
+        <v>257947994.4004802</v>
       </c>
     </row>
     <row r="105">
@@ -3788,19 +3788,19 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>598813.4520236228</v>
+        <v>321049.0538396625</v>
       </c>
       <c r="E105" t="n">
-        <v>1796440356.070868</v>
+        <v>963147161.5189875</v>
       </c>
       <c r="F105" t="n">
-        <v>12036150.38567482</v>
+        <v>6453085.982177217</v>
       </c>
       <c r="G105" t="n">
-        <v>3502525750.365892</v>
+        <v>1171305736.557009</v>
       </c>
       <c r="H105" t="n">
-        <v>23467499.18480578</v>
+        <v>7846438.875841352</v>
       </c>
     </row>
     <row r="106">
@@ -3820,19 +3820,19 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1717133.401889381</v>
+        <v>1647243.984153126</v>
       </c>
       <c r="E106" t="n">
-        <v>9959373730.95841</v>
+        <v>8236219920.76563</v>
       </c>
       <c r="F106" t="n">
-        <v>66727803.99742135</v>
+        <v>55182673.46912972</v>
       </c>
       <c r="G106" t="n">
-        <v>14901111948.25586</v>
+        <v>11082822249.78065</v>
       </c>
       <c r="H106" t="n">
-        <v>99834135.98584861</v>
+        <v>74257758.80562291</v>
       </c>
     </row>
     <row r="107">
@@ -3852,19 +3852,19 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2563351.732323783</v>
+        <v>2683689.252789796</v>
       </c>
       <c r="E107" t="n">
-        <v>1281675866.161891</v>
+        <v>1610213551.673877</v>
       </c>
       <c r="F107" t="n">
-        <v>346052483.8637107</v>
+        <v>434757658.9519469</v>
       </c>
       <c r="G107" t="n">
-        <v>1995518056.579419</v>
+        <v>2563782016.975148</v>
       </c>
       <c r="H107" t="n">
-        <v>538790900.6171359</v>
+        <v>692230805.8645999</v>
       </c>
     </row>
     <row r="108">
@@ -3884,19 +3884,19 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>819546.7641417005</v>
+        <v>729169.4405946374</v>
       </c>
       <c r="E108" t="n">
-        <v>163909352.8283401</v>
+        <v>291667776.237855</v>
       </c>
       <c r="F108" t="n">
-        <v>44255525.26365183</v>
+        <v>78750299.58422084</v>
       </c>
       <c r="G108" t="n">
-        <v>564954561.8610812</v>
+        <v>458953829.2990767</v>
       </c>
       <c r="H108" t="n">
-        <v>152534043.7420533</v>
+        <v>123915054.7346527</v>
       </c>
     </row>
     <row r="109">
@@ -3916,19 +3916,19 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5876941.567740617</v>
+        <v>5693639.352688396</v>
       </c>
       <c r="E109" t="n">
-        <v>2350776627.096247</v>
+        <v>1992773773.440939</v>
       </c>
       <c r="F109" t="n">
-        <v>634709689.3159866</v>
+        <v>538048918.8290534</v>
       </c>
       <c r="G109" t="n">
-        <v>4791294151.931893</v>
+        <v>3793728837.089805</v>
       </c>
       <c r="H109" t="n">
-        <v>1293632377.891065</v>
+        <v>1024285719.548643</v>
       </c>
     </row>
     <row r="110">
@@ -3948,19 +3948,19 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>194791.4237234942</v>
+        <v>194850.8027949691</v>
       </c>
       <c r="E110" t="n">
-        <v>15583313.89787954</v>
+        <v>15588064.22359753</v>
       </c>
       <c r="F110" t="n">
-        <v>9194155.199748926</v>
+        <v>9196957.891922541</v>
       </c>
       <c r="G110" t="n">
-        <v>22700992.52073602</v>
+        <v>22717655.09786545</v>
       </c>
       <c r="H110" t="n">
-        <v>13393858.29522746</v>
+        <v>13403786.72426593</v>
       </c>
     </row>
     <row r="111">
@@ -3980,19 +3980,19 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>56173.42375878683</v>
+        <v>56178.65539772727</v>
       </c>
       <c r="E111" t="n">
-        <v>5055608.138290814</v>
+        <v>5056078.985795454</v>
       </c>
       <c r="F111" t="n">
-        <v>2982808.801591581</v>
+        <v>2983086.601619318</v>
       </c>
       <c r="G111" t="n">
-        <v>8344562.099367783</v>
+        <v>8356013.203857955</v>
       </c>
       <c r="H111" t="n">
-        <v>4923038.858220077</v>
+        <v>4930238.797704546</v>
       </c>
     </row>
     <row r="112">
@@ -4012,19 +4012,19 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>618779.6886336289</v>
+        <v>618574.6088157002</v>
       </c>
       <c r="E112" t="n">
-        <v>37126781.31801774</v>
+        <v>37114476.52894201</v>
       </c>
       <c r="F112" t="n">
-        <v>21904800.97763046</v>
+        <v>21897541.15207579</v>
       </c>
       <c r="G112" t="n">
-        <v>122642134.2871852</v>
+        <v>122712830.8968586</v>
       </c>
       <c r="H112" t="n">
-        <v>72360096.78881656</v>
+        <v>72404157.9618777</v>
       </c>
     </row>
     <row r="113">
@@ -4140,19 +4140,19 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>498602.8330914578</v>
+        <v>498058.8757930106</v>
       </c>
       <c r="E116" t="n">
-        <v>24930141.65457289</v>
+        <v>24902943.78965053</v>
       </c>
       <c r="F116" t="n">
-        <v>26176648.73730153</v>
+        <v>26148090.97913305</v>
       </c>
       <c r="G116" t="n">
-        <v>37061148.58368806</v>
+        <v>37010755.06017862</v>
       </c>
       <c r="H116" t="n">
-        <v>38915951.12278828</v>
+        <v>38863534.07812861</v>
       </c>
     </row>
     <row r="117">
@@ -4172,19 +4172,19 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>890958.000652776</v>
+        <v>890818.9023210424</v>
       </c>
       <c r="E117" t="n">
-        <v>44547900.0326388</v>
+        <v>44540945.11605212</v>
       </c>
       <c r="F117" t="n">
-        <v>46775295.03427074</v>
+        <v>46767992.37185472</v>
       </c>
       <c r="G117" t="n">
-        <v>44004415.6522406</v>
+        <v>43988637.39661308</v>
       </c>
       <c r="H117" t="n">
-        <v>46205081.91385296</v>
+        <v>46188960.08534605</v>
       </c>
     </row>
     <row r="118">
@@ -4204,19 +4204,19 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4782095.746148977</v>
+        <v>4783612.345602707</v>
       </c>
       <c r="E118" t="n">
-        <v>215194308.576704</v>
+        <v>215262555.5521218</v>
       </c>
       <c r="F118" t="n">
-        <v>225954024.0055392</v>
+        <v>226025683.3297279</v>
       </c>
       <c r="G118" t="n">
-        <v>255746480.5040473</v>
+        <v>255779752.1193767</v>
       </c>
       <c r="H118" t="n">
-        <v>268562497.1037266</v>
+        <v>268551997.082136</v>
       </c>
     </row>
     <row r="119">
@@ -4236,19 +4236,19 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2881388.401249033</v>
+        <v>2882287.71044719</v>
       </c>
       <c r="E119" t="n">
-        <v>172883304.074942</v>
+        <v>172937262.6268314</v>
       </c>
       <c r="F119" t="n">
-        <v>172883304.074942</v>
+        <v>172937262.6268314</v>
       </c>
       <c r="G119" t="n">
-        <v>446211807.8174253</v>
+        <v>446149314.7001205</v>
       </c>
       <c r="H119" t="n">
-        <v>446211807.8174253</v>
+        <v>446149314.7001205</v>
       </c>
     </row>
     <row r="120">
@@ -4268,19 +4268,19 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6837825.109094264</v>
+        <v>6833093.27960596</v>
       </c>
       <c r="E120" t="n">
-        <v>547026008.7275411</v>
+        <v>546647462.3684767</v>
       </c>
       <c r="F120" t="n">
-        <v>547026008.7275411</v>
+        <v>546647462.3684767</v>
       </c>
       <c r="G120" t="n">
-        <v>681867919.87888</v>
+        <v>681191069.0439181</v>
       </c>
       <c r="H120" t="n">
-        <v>681867919.87888</v>
+        <v>681191069.0439181</v>
       </c>
     </row>
     <row r="121">
@@ -4300,19 +4300,19 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>33865498.06051082</v>
+        <v>33860533.17053726</v>
       </c>
       <c r="E121" t="n">
-        <v>2031929883.630649</v>
+        <v>2031631990.232236</v>
       </c>
       <c r="F121" t="n">
-        <v>2031929883.630649</v>
+        <v>2031631990.232236</v>
       </c>
       <c r="G121" t="n">
-        <v>4196273864.677896</v>
+        <v>4196674481.156388</v>
       </c>
       <c r="H121" t="n">
-        <v>4196273864.677896</v>
+        <v>4196674481.156388</v>
       </c>
     </row>
     <row r="122">
@@ -4332,19 +4332,19 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1179250.45817558</v>
+        <v>1179595.782365718</v>
       </c>
       <c r="E122" t="n">
-        <v>94340036.6540464</v>
+        <v>94367662.58925743</v>
       </c>
       <c r="F122" t="n">
-        <v>60377623.4585897</v>
+        <v>60395304.05712476</v>
       </c>
       <c r="G122" t="n">
-        <v>151793118.9763606</v>
+        <v>151813977.1904679</v>
       </c>
       <c r="H122" t="n">
-        <v>97146652.74450427</v>
+        <v>97163304.5934642</v>
       </c>
     </row>
     <row r="123">
@@ -4364,19 +4364,19 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>421477.8390342179</v>
+        <v>421821.5096642096</v>
       </c>
       <c r="E123" t="n">
-        <v>33718227.12273743</v>
+        <v>33745720.77313677</v>
       </c>
       <c r="F123" t="n">
-        <v>21579665.35855196</v>
+        <v>21597261.29480753</v>
       </c>
       <c r="G123" t="n">
-        <v>31126138.41267699</v>
+        <v>31164173.1339918</v>
       </c>
       <c r="H123" t="n">
-        <v>19923257.45114748</v>
+        <v>19943720.97692383</v>
       </c>
     </row>
     <row r="124">
@@ -4396,19 +4396,19 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4437458.114691527</v>
+        <v>4437694.867871666</v>
       </c>
       <c r="E124" t="n">
-        <v>288434777.4549493</v>
+        <v>288450166.4116583</v>
       </c>
       <c r="F124" t="n">
-        <v>184598257.5711675</v>
+        <v>184608106.5034613</v>
       </c>
       <c r="G124" t="n">
-        <v>581706384.2549123</v>
+        <v>581559912.4345819</v>
       </c>
       <c r="H124" t="n">
-        <v>372302735.8226191</v>
+        <v>372189468.5683967</v>
       </c>
     </row>
     <row r="125">
@@ -4428,19 +4428,19 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>734385.2412168779</v>
+        <v>733944.1298262129</v>
       </c>
       <c r="E125" t="n">
-        <v>36719262.0608439</v>
+        <v>36697206.49131064</v>
       </c>
       <c r="F125" t="n">
-        <v>26805061.30441605</v>
+        <v>26788960.73865677</v>
       </c>
       <c r="G125" t="n">
-        <v>178161859.5192146</v>
+        <v>178003469.8067514</v>
       </c>
       <c r="H125" t="n">
-        <v>130059626.2195091</v>
+        <v>129944808.185731</v>
       </c>
     </row>
     <row r="126">
@@ -4460,19 +4460,19 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>324541.0581836813</v>
+        <v>324120.5760550656</v>
       </c>
       <c r="E126" t="n">
-        <v>19472463.49102088</v>
+        <v>19447234.56330394</v>
       </c>
       <c r="F126" t="n">
-        <v>14214898.34844524</v>
+        <v>14196481.23121187</v>
       </c>
       <c r="G126" t="n">
-        <v>60598306.38405697</v>
+        <v>60587859.28197341</v>
       </c>
       <c r="H126" t="n">
-        <v>44238191.64101759</v>
+        <v>44229493.80847426</v>
       </c>
     </row>
     <row r="127">
@@ -4492,19 +4492,19 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>6145002.035411325</v>
+        <v>6144330.445112872</v>
       </c>
       <c r="E127" t="n">
-        <v>350265116.0184456</v>
+        <v>350226835.3714337</v>
       </c>
       <c r="F127" t="n">
-        <v>255693534.6934652</v>
+        <v>255665589.8211466</v>
       </c>
       <c r="G127" t="n">
-        <v>986395726.724226</v>
+        <v>987578232.4429919</v>
       </c>
       <c r="H127" t="n">
-        <v>720071338.5094992</v>
+        <v>720914291.1250932</v>
       </c>
     </row>
     <row r="128">
@@ -4524,19 +4524,19 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2741091.340263053</v>
+        <v>2740580.793849132</v>
       </c>
       <c r="E128" t="n">
-        <v>137054567.0131526</v>
+        <v>137029039.6924566</v>
       </c>
       <c r="F128" t="n">
-        <v>143907295.3638103</v>
+        <v>143880491.6770794</v>
       </c>
       <c r="G128" t="n">
-        <v>276932458.1067762</v>
+        <v>277319370.5295936</v>
       </c>
       <c r="H128" t="n">
-        <v>290774969.3751047</v>
+        <v>291186709.3464703</v>
       </c>
     </row>
     <row r="129">
@@ -4556,19 +4556,19 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1736737.853387133</v>
+        <v>1736873.459086922</v>
       </c>
       <c r="E129" t="n">
-        <v>64259300.57532392</v>
+        <v>64264317.98621611</v>
       </c>
       <c r="F129" t="n">
-        <v>67472265.60409012</v>
+        <v>67477533.88552693</v>
       </c>
       <c r="G129" t="n">
-        <v>93575435.54049873</v>
+        <v>93374317.16051292</v>
       </c>
       <c r="H129" t="n">
-        <v>98264627.74464399</v>
+        <v>98046506.76545675</v>
       </c>
     </row>
     <row r="130">
@@ -4588,19 +4588,19 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>13328918.64840356</v>
+        <v>13327866.21365279</v>
       </c>
       <c r="E130" t="n">
-        <v>533156745.9361424</v>
+        <v>533114648.5461116</v>
       </c>
       <c r="F130" t="n">
-        <v>559814583.2329495</v>
+        <v>559770380.9734172</v>
       </c>
       <c r="G130" t="n">
-        <v>763080592.6211039</v>
+        <v>762753783.4073491</v>
       </c>
       <c r="H130" t="n">
-        <v>801334589.142022</v>
+        <v>801004759.4405327</v>
       </c>
     </row>
     <row r="131">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>95443.60995405834</v>
+        <v>95470.50419769144</v>
       </c>
       <c r="E131" t="n">
-        <v>4772180.497702917</v>
+        <v>4773525.209884572</v>
       </c>
       <c r="F131" t="n">
-        <v>5010789.522588063</v>
+        <v>5012201.4703788</v>
       </c>
       <c r="G131" t="n">
-        <v>10869118.30156816</v>
+        <v>10869316.90290717</v>
       </c>
       <c r="H131" t="n">
-        <v>11412192.44220676</v>
+        <v>11412544.07179203</v>
       </c>
     </row>
     <row r="132">
@@ -4652,19 +4652,19 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>82625.47572848819</v>
+        <v>82640.0369484346</v>
       </c>
       <c r="E132" t="n">
-        <v>6610038.058279055</v>
+        <v>6611202.955874768</v>
       </c>
       <c r="F132" t="n">
-        <v>6940539.961193008</v>
+        <v>6941763.103668506</v>
       </c>
       <c r="G132" t="n">
-        <v>7642030.250127872</v>
+        <v>7644203.417730201</v>
       </c>
       <c r="H132" t="n">
-        <v>8023759.947993488</v>
+        <v>8026826.788801452</v>
       </c>
     </row>
     <row r="133">
@@ -4684,19 +4684,19 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>699620.8582228884</v>
+        <v>699724.8575463503</v>
       </c>
       <c r="E133" t="n">
-        <v>34981042.91114442</v>
+        <v>34986242.87731752</v>
       </c>
       <c r="F133" t="n">
-        <v>36730095.05670165</v>
+        <v>36735555.02118339</v>
       </c>
       <c r="G133" t="n">
-        <v>52303655.36074314</v>
+        <v>52304433.10158969</v>
       </c>
       <c r="H133" t="n">
-        <v>54913241.16191451</v>
+        <v>54921404.06881303</v>
       </c>
     </row>
     <row r="134">
@@ -4716,19 +4716,19 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>8227271.179690513</v>
+        <v>10215166.16001948</v>
       </c>
       <c r="E134" t="n">
-        <v>57590898257.83359</v>
+        <v>51075830800.0974</v>
       </c>
       <c r="F134" t="n">
-        <v>385859018.327485</v>
+        <v>342208066.3606526</v>
       </c>
       <c r="G134" t="n">
-        <v>70387678123.436</v>
+        <v>68988635419.99956</v>
       </c>
       <c r="H134" t="n">
-        <v>471587184.0198602</v>
+        <v>462236268.7408814</v>
       </c>
     </row>
     <row r="135">
@@ -4748,19 +4748,19 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1342253.184880135</v>
+        <v>964416.130111239</v>
       </c>
       <c r="E135" t="n">
-        <v>4026759554.640405</v>
+        <v>2893248390.333717</v>
       </c>
       <c r="F135" t="n">
-        <v>26979289.01609072</v>
+        <v>19384764.21523591</v>
       </c>
       <c r="G135" t="n">
-        <v>7850986526.214247</v>
+        <v>3518546876.613941</v>
       </c>
       <c r="H135" t="n">
-        <v>52602902.31545249</v>
+        <v>23570330.21991868</v>
       </c>
     </row>
     <row r="136">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2862300.287367958</v>
+        <v>3648148.033287618</v>
       </c>
       <c r="E136" t="n">
-        <v>16601341666.73416</v>
+        <v>18240740166.43809</v>
       </c>
       <c r="F136" t="n">
-        <v>111228989.1671188</v>
+        <v>122212959.1151352</v>
       </c>
       <c r="G136" t="n">
-        <v>24838755663.7504</v>
+        <v>24545104782.76242</v>
       </c>
       <c r="H136" t="n">
-        <v>166414138.7075731</v>
+        <v>164458513.3406058</v>
       </c>
     </row>
     <row r="137">
@@ -4812,19 +4812,19 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2712657.637681753</v>
+        <v>2683689.252789796</v>
       </c>
       <c r="E137" t="n">
-        <v>1356328818.840876</v>
+        <v>1610213551.673877</v>
       </c>
       <c r="F137" t="n">
-        <v>366208781.0870367</v>
+        <v>434757658.9519469</v>
       </c>
       <c r="G137" t="n">
-        <v>2111749717.782491</v>
+        <v>2563782016.975148</v>
       </c>
       <c r="H137" t="n">
-        <v>570173508.8643277</v>
+        <v>692230805.8645999</v>
       </c>
     </row>
     <row r="138">
@@ -4844,19 +4844,19 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>978888.9548858353</v>
+        <v>842169.3831429292</v>
       </c>
       <c r="E138" t="n">
-        <v>195777790.9771671</v>
+        <v>336867753.2571717</v>
       </c>
       <c r="F138" t="n">
-        <v>52860003.56383511</v>
+        <v>90954293.37943634</v>
       </c>
       <c r="G138" t="n">
-        <v>674797101.0505506</v>
+        <v>530078253.1378224</v>
       </c>
       <c r="H138" t="n">
-        <v>182190812.2833517</v>
+        <v>143118264.9713094</v>
       </c>
     </row>
     <row r="139">
@@ -4876,19 +4876,19 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6133442.709688731</v>
+        <v>6258412.341879455</v>
       </c>
       <c r="E139" t="n">
-        <v>2453377083.875492</v>
+        <v>2190444319.657809</v>
       </c>
       <c r="F139" t="n">
-        <v>662411812.6463829</v>
+        <v>591419966.3076085</v>
       </c>
       <c r="G139" t="n">
-        <v>5000411837.927931</v>
+        <v>4170042727.5177</v>
       </c>
       <c r="H139" t="n">
-        <v>1350093409.256683</v>
+        <v>1125888380.304114</v>
       </c>
     </row>
     <row r="140">
@@ -4908,19 +4908,19 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>254105.2149113584</v>
+        <v>254160.6524176482</v>
       </c>
       <c r="E140" t="n">
-        <v>20328417.19290867</v>
+        <v>20332852.19341186</v>
       </c>
       <c r="F140" t="n">
-        <v>11993766.14381612</v>
+        <v>11996382.794113</v>
       </c>
       <c r="G140" t="n">
-        <v>29613421.74576971</v>
+        <v>29632590.46537361</v>
       </c>
       <c r="H140" t="n">
-        <v>17472274.577305</v>
+        <v>17483711.27981002</v>
       </c>
     </row>
     <row r="141">
@@ -4940,19 +4940,19 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>56173.42375878683</v>
+        <v>56178.65539772727</v>
       </c>
       <c r="E141" t="n">
-        <v>5055608.138290814</v>
+        <v>5056078.985795454</v>
       </c>
       <c r="F141" t="n">
-        <v>2982808.801591581</v>
+        <v>2983086.601619318</v>
       </c>
       <c r="G141" t="n">
-        <v>8344562.099367783</v>
+        <v>8356013.203857955</v>
       </c>
       <c r="H141" t="n">
-        <v>4923038.858220077</v>
+        <v>4930238.797704546</v>
       </c>
     </row>
     <row r="142">
@@ -4972,19 +4972,19 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>758062.6526165999</v>
+        <v>757880.9065978541</v>
       </c>
       <c r="E142" t="n">
-        <v>45483759.156996</v>
+        <v>45472854.39587124</v>
       </c>
       <c r="F142" t="n">
-        <v>26835417.90262764</v>
+        <v>26828984.09356403</v>
       </c>
       <c r="G142" t="n">
-        <v>150248017.7486101</v>
+        <v>150348414.2508823</v>
       </c>
       <c r="H142" t="n">
-        <v>88647846.59698519</v>
+        <v>88709960.11727881</v>
       </c>
     </row>
     <row r="143">
@@ -5100,19 +5100,19 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>590414.16436609</v>
+        <v>589976.9081989247</v>
       </c>
       <c r="E146" t="n">
-        <v>29520708.2183045</v>
+        <v>29498845.40994624</v>
       </c>
       <c r="F146" t="n">
-        <v>30996743.62921972</v>
+        <v>30973787.68044355</v>
       </c>
       <c r="G146" t="n">
-        <v>43885484.83733147</v>
+        <v>43841184.0482621</v>
       </c>
       <c r="H146" t="n">
-        <v>46081825.52877332</v>
+        <v>46035898.1467621</v>
       </c>
     </row>
     <row r="147">
@@ -5132,19 +5132,19 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1083233.791717288</v>
+        <v>1083228.384857675</v>
       </c>
       <c r="E147" t="n">
-        <v>54161689.5858644</v>
+        <v>54161419.24288376</v>
       </c>
       <c r="F147" t="n">
-        <v>56869774.06515762</v>
+        <v>56869490.20502794</v>
       </c>
       <c r="G147" t="n">
-        <v>53500916.97291686</v>
+        <v>53489817.644272</v>
       </c>
       <c r="H147" t="n">
-        <v>56176504.43845856</v>
+        <v>56165391.75487045</v>
       </c>
     </row>
     <row r="148">
@@ -5164,19 +5164,19 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5382661.320825825</v>
+        <v>5384061.134227084</v>
       </c>
       <c r="E148" t="n">
-        <v>242219759.4371621</v>
+        <v>242282751.0402188</v>
       </c>
       <c r="F148" t="n">
-        <v>254330747.4090202</v>
+        <v>254396888.5922297</v>
       </c>
       <c r="G148" t="n">
-        <v>287864727.4377651</v>
+        <v>287885748.8471222</v>
       </c>
       <c r="H148" t="n">
-        <v>302290259.7775784</v>
+        <v>302261192.0755085</v>
       </c>
     </row>
     <row r="149">
@@ -5196,19 +5196,19 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>3799394.388865372</v>
+        <v>3800538.662448064</v>
       </c>
       <c r="E149" t="n">
-        <v>227963663.3319223</v>
+        <v>228032319.7468838</v>
       </c>
       <c r="F149" t="n">
-        <v>227963663.3319223</v>
+        <v>228032319.7468838</v>
       </c>
       <c r="G149" t="n">
-        <v>588374215.0596915</v>
+        <v>588285379.5603358</v>
       </c>
       <c r="H149" t="n">
-        <v>588374215.0596915</v>
+        <v>588285379.5603358</v>
       </c>
     </row>
     <row r="150">
@@ -5228,19 +5228,19 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>8139407.715027579</v>
+        <v>8135849.34381271</v>
       </c>
       <c r="E150" t="n">
-        <v>651152617.2022064</v>
+        <v>650867947.5050168</v>
       </c>
       <c r="F150" t="n">
-        <v>651152617.2022064</v>
+        <v>650867947.5050168</v>
       </c>
       <c r="G150" t="n">
-        <v>811661737.3425502</v>
+        <v>811062821.084689</v>
       </c>
       <c r="H150" t="n">
-        <v>811661737.3425502</v>
+        <v>811062821.084689</v>
       </c>
     </row>
     <row r="151">
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46415484.64266352</v>
+        <v>46412089.04872708</v>
       </c>
       <c r="E151" t="n">
-        <v>2784929078.559812</v>
+        <v>2784725342.923625</v>
       </c>
       <c r="F151" t="n">
-        <v>2784929078.559812</v>
+        <v>2784725342.923625</v>
       </c>
       <c r="G151" t="n">
-        <v>5751342702.072437</v>
+        <v>5752314316.699234</v>
       </c>
       <c r="H151" t="n">
-        <v>5751342702.072437</v>
+        <v>5752314316.699234</v>
       </c>
     </row>
   </sheetData>
